--- a/aggregated_output/DHAKA_aggregated.xlsx
+++ b/aggregated_output/DHAKA_aggregated.xlsx
@@ -437,36 +437,36 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
+Facets: Motivations, Information Processing Style
+Why: The subgoal of finding the issue tracker is directly related to the overall use case of creating a new issue. ABI is motivated to accomplish their tasks and will recognize that locating the issue tracker is a necessary step. Additionally, ABI's comprehensive information processing style will lead them to gather all relevant information, including finding the issue tracker, to form a complete understanding of how to create a new issue.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: Motivations, Information Processing Style
+Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, would likely recognize this section as a step toward finding the issue tracker.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: Motivations, Information Processing Style
+Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. Abi, who is motivated to accomplish tasks and uses a comprehensive information processing style, would likely read through the page and identify this section as a step toward finding the issue tracker.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: ABI is motivated to accomplish the task of creating a new issue, and finding the issue tracker is a logical step toward achieving this goal. The page provides comprehensive information, and ABI's information processing style involves gathering all necessary details before proceeding. The presence of sections like "Bug Reports, Suggestions, Other Feedback" indicates that this page is relevant to finding the issue tracker.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
 Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the issue tracker as a necessary step toward creating a new issue.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the issue tracker as a necessary step toward creating a new issue.</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. ABI, motivated to accomplish the task, would likely consider finding the issue tracker as a necessary step. Additionally, ABI's comprehensive information processing style would lead them to read through the page and identify this section as pertinent to their goal.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, would likely recognize this section as a step toward finding the issue tracker.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, would likely recognize this section as a step toward finding the issue tracker.</t>
         </is>
       </c>
     </row>
@@ -474,36 +474,36 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on the "Issues" link is a logical step toward finding the issue tracker and creating a new issue. The page provides enough context for Abi to understand that this link will lead her to the issue tracker.</t>
+Facets: Motivations, Information Processing Style
+Why: The 'Issues' link is clearly visible on the page, and it is labeled in a way that indicates it will lead to the issue tracker. ABI, being motivated to accomplish their task of creating a new issue, will recognize that clicking on the 'Issues' link is a logical step. Additionally, ABI's comprehensive information processing style will help them understand that this link is relevant to their subgoal of finding the issue tracker.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on the "Issues" link is a logical step toward finding the issue tracker and creating a new issue. The page provides enough context for Abi to understand that this link will lead her to the issue tracker.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, would likely recognize that clicking on the "Issues" link is a logical step toward finding the issue tracker. The page provides enough context for ABI to understand that this link will lead to the issue tracker.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. ABI, motivated to create a new issue, would recognize this as a logical step. Additionally, ABI's comprehensive information processing style would lead them to read through the page and identify the "Issues" link as relevant to their goal. The page provides enough context for ABI to understand that clicking the "Issues" link is the appropriate action to take.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Issues" link is prominently displayed at the top of the page, which is a common location for issue tracking in repositories. Abi, who is motivated to accomplish the task and uses a comprehensive information processing style, would likely recognize this as the appropriate next step to find the issue tracker. The page provides enough context and familiar layout for Abi to feel confident in taking this action.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. ABI, who uses a comprehensive information processing style, would likely read through the page and notice the "Issues" link as a logical next step to find the issue tracker. Additionally, ABI's motivation to accomplish tasks would drive them to click on the "Issues" link to proceed with creating a new issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy for ABI to identify. Given ABI's motivation to create a new issue and their comprehensive information processing style, they will likely recognize that clicking on the "Issues" link is a necessary step to find the issue tracker. The page provides sufficient context and clear navigation options, which align with ABI's need for clear and comprehensive information before taking action.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. ABI, who uses a comprehensive information processing style, would likely read through the page and notice this link. Additionally, ABI's motivation to accomplish tasks would drive them to click on the "Issues" link to proceed with creating a new issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she would likely recognize that clicking on the "Issues" link is a logical step toward finding the issue tracker and creating a new issue. The page provides clear navigation options, which aligns with Abi's preference for process-oriented learning.</t>
         </is>
       </c>
     </row>
@@ -511,36 +511,36 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Issues" link, Abi is taken to a page that clearly lists existing issues and includes a "New issue" button. This page provides a clear indication that she is in the right place to create a new issue. The presence of the "New issue" button and the list of existing issues will help Abi understand that she is making progress toward her goal of creating a new issue. The page is well-organized and provides the necessary information for her to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking on the 'Issues' link, ABI will land on a page that clearly lists existing issues and includes a 'New issue' button. This page provides a clear indication that ABI is in the right place to create a new issue. The presence of the 'New issue' button and the list of existing issues will confirm to ABI that they are making progress toward their goal. The page is well-organized and provides all the necessary information for ABI to proceed with creating a new issue.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Issues" link, Abi is taken to a page that clearly lists existing issues and includes a "New issue" button. This page provides a clear indication that she is in the right place to create a new issue. The presence of the "New issue" button and the list of existing issues will confirm to Abi that she is making progress toward her goal and provide her with the necessary information to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and includes a "New issue" button. This page provides a clear indication that ABI is in the right place to create a new issue. The presence of the "New issue" button and the list of issues will confirm to ABI that they are making progress toward their goal of finding the issue tracker and creating a new issue. The information is well-organized and relevant, aligning with ABI's comprehensive information processing style.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and prominently displays a "New issue" button. This provides clear feedback that ABI is in the right place to create a new issue. The layout and labeling of the page make it evident that ABI is making progress toward their goal, and the "New issue" button is easily identifiable, providing the necessary information to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "Issues" link, Abi is taken to a page that clearly lists existing issues and includes a prominent "New issue" button. This indicates that Abi is in the right place to create a new issue, confirming that she is making progress toward her goal. The layout and information provided are straightforward and align with Abi's comprehensive information processing style, giving her the confidence that she has done the right thing and can proceed with creating a new issue.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and includes a "New issue" button. This page provides a clear indication that ABI is in the right place to create a new issue, thus confirming progress toward their goal. The presence of the "New issue" button and the list of issues align with ABI's motivation to accomplish tasks and their comprehensive information processing style, as it provides all the necessary information to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and prominently features a "New issue" button. This indicates that ABI is on the right track to create a new issue. The page provides comprehensive information about existing issues, which aligns with ABI's information processing style, and the presence of the "New issue" button makes it clear that ABI is making progress toward their goal.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and includes a prominent "New issue" button. This page provides a clear indication that ABI is in the right place to create a new issue, aligning with their motivation to accomplish tasks. The layout and information on the page are straightforward, supporting ABI's comprehensive information processing style by providing all necessary information to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Issues" link, Abi will land on a page that clearly lists existing issues and prominently features a "New issue" button. This page provides a clear indication that she is in the right place to create a new issue, aligning with her motivation to accomplish her task. The layout and labeling of the page are straightforward, which supports Abi's comprehensive information processing style by providing all the necessary information to proceed with creating a new issue.</t>
         </is>
       </c>
     </row>
@@ -548,36 +548,36 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that clicking the "New issue" button is the next logical step toward creating a new issue. The page provides a straightforward path for her to follow, ensuring she knows what to do at this step.</t>
+Facets: Motivations, Information Processing Style
+Why: The 'New issue' button is prominently displayed on the page, making it clear and easy for ABI to identify the next step in creating a new issue. ABI, being motivated to complete their task, will recognize that clicking this button is the logical next action. The page is well-organized and provides a clear path forward, aligning with ABI's comprehensive information processing style. This will give ABI the confidence to proceed with clicking the 'New issue' button.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that clicking the "New issue" button is the next logical step toward creating a new issue. The page provides sufficient context and visual cues for Abi to understand what to do at this step.</t>
+Facets: Motivations, Information Processing Style
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, will recognize that clicking this button is the next logical step toward creating a new issue. The page provides a clear and straightforward path for ABI to follow, ensuring that they know what to do at this step.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy for ABI to identify the next step. ABI, motivated to create a new issue, will recognize this button as the appropriate action to take. The page layout and labeling provide sufficient context for ABI to understand that clicking the "New issue" button will allow them to proceed with their goal.</t>
+Facets: Motivations, Information Processing Style
+Why: The "New issue" button is prominently displayed in green at the top right of the page, making it clear and easy to find. Abi, who is motivated to create a new issue and uses a comprehensive information processing style, will recognize this button as the next step in the process. The page layout and the clear labeling of the button provide sufficient guidance for Abi to confidently take this action.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, will recognize this button as the next step in creating a new issue. The page provides a straightforward path to proceed, aligning with ABI's need for clear instructions and reducing the likelihood of confusion.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for ABI to identify the next step. Given ABI's motivation to create a new issue and their comprehensive information processing style, they will recognize that clicking the "New issue" button is the appropriate action to take. The page provides a clear path forward, which aligns with ABI's need for clear and comprehensive information before taking action.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "New issue" button is prominently displayed on the page, making it clear what ABI needs to do next. ABI, who is motivated to accomplish tasks, will likely recognize this as the next step. The page layout is straightforward and provides a clear path forward, aligning with ABI's comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she would recognize that clicking the "New issue" button is the next logical step toward creating a new issue. The page layout and labeling provide clear guidance, which aligns with Abi's preference for process-oriented learning.</t>
         </is>
       </c>
     </row>
@@ -585,36 +585,36 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "New issue" button, Abi is taken to a page that clearly categorizes different types of issues she can report, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability." Each category has a "Get started" button, making it clear what to do next. This page provides a straightforward path for Abi to follow, ensuring she knows that she did the right thing and is making progress toward her goal. The page is well-organized and provides the necessary information for her to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the 'New issue' button, ABI will land on a page that clearly categorizes different types of issues they can report, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability." Each category has a 'Get started' button, making it clear what to do next. This page provides a straightforward path for ABI to follow, confirming that they are making progress toward their goal. The clear categorization and instructions align with ABI's comprehensive information processing style, ensuring they have all the information they need to proceed.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "New issue" button, Abi is taken to a page that clearly categorizes different types of issues she can report, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability." Each category has a "Get started" button, making it clear what to do next. This page provides a straightforward path for Abi to follow, confirming that she is making progress toward her goal and providing her with the necessary information to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement, Report a security vulnerability). Each category has a "Get started" button, making it clear what to do next. This page provides a straightforward path for ABI to follow, ensuring that they know they did the right thing and are making progress toward their goal. The information is well-organized and relevant, aligning with ABI's comprehensive information processing style.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement, etc.) with "Get started" buttons next to each category. This layout provides clear feedback that ABI is on the right track and making progress toward their goal. The page is well-organized and provides all the necessary information for ABI to proceed with creating a new issue, aligning with their comprehensive information processing style.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "New issue" button, Abi is taken to a page that clearly presents different options for creating a new issue, such as "Bug report" and "Suggestion for improvement," each with a "Get started" button. This layout confirms to Abi that she is on the right track and making progress toward her goal. The clear categorization and straightforward instructions align with Abi's comprehensive information processing style, providing her with the necessary information to proceed confidently.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement, etc.) with "Get started" buttons next to each category. This layout is straightforward and provides clear next steps, making it easy for ABI to understand that they are making progress toward their goal. The page provides all the necessary information to proceed, aligning with ABI's motivation to accomplish tasks and their comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues they can report, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability." Each category has a "Get started" button, making it clear what the next steps are. This aligns with ABI's motivation to create a new issue and their need for comprehensive information. The page provides clear options and instructions, ensuring ABI knows they are making progress toward their goal and has all the information they need to proceed.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement) with "Get started" buttons next to each category. This clear categorization and call-to-action buttons provide ABI with a straightforward path to proceed, ensuring they know they are making progress toward their goal. The page layout supports ABI's comprehensive information processing style by providing all necessary information in an organized manner.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "New issue" button, Abi lands on a page that clearly categorizes different types of issues she can report, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability." Each category has a "Get started" button, making it clear what to do next. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style, as the page provides clear and organized options for proceeding with creating a new issue.</t>
         </is>
       </c>
     </row>
@@ -622,36 +622,36 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Get started" button for "Bug report" is clearly labeled and prominently displayed. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that clicking the "Get started" button is the next logical step toward creating a new issue. The page is straightforward and provides clear instructions, making it easy for Abi to know what to do at this step.</t>
+Facets: Motivations, Information Processing Style
+Why: The 'Get started' button for 'Bug report' is clearly labeled and prominently displayed, making it easy for ABI to understand what to do next. ABI, being motivated to create a new issue, will recognize that clicking this button is the appropriate action to take. The page is straightforward and provides clear instructions, aligning with ABI's comprehensive information processing style. This will give ABI the confidence to proceed with clicking the 'Get started' button for 'Bug report'.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly labels different types of issues, including "Bug report," with a "Get started" button next to it. This makes it straightforward for Abi to understand what to do next. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that clicking the "Get started" button for "Bug report" is the appropriate action to take to proceed with creating a new issue. The page provides clear and concise instructions, making it easy for Abi to take this action.</t>
+Facets: Motivations, Information Processing Style
+Why: The page clearly labels different types of issues, including "Bug report," with a "Get started" button next to each option. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, will understand that clicking the "Get started" button for "Bug report" is the next step in creating a new issue. The page provides clear and straightforward instructions, making it easy for ABI to know what to do at this step.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists different types of issues with corresponding "Get started" buttons. ABI, motivated to create a bug report, will easily identify the "Get started" button next to "Bug report" as the appropriate action to take. The page layout and labeling provide sufficient context for ABI to understand what to do next, aligning with their comprehensive information processing style. The clear and straightforward design ensures that ABI knows what to do at this step.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Get started" button for "Bug report" is clearly labeled and prominently displayed, making it easy for Abi to identify the next step. Abi, who is motivated to create a new issue and uses a comprehensive information processing style, will understand that clicking this button is the appropriate action to take. The page layout and clear instructions provide sufficient guidance for Abi to proceed confidently.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page clearly labels different types of issues, including "Bug report," with a "Get started" button next to it. This straightforward labeling and call-to-action align with ABI's motivation to accomplish tasks and their comprehensive information processing style. ABI will understand that clicking "Get started" for "Bug report" is the correct next step to proceed with creating a new issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Get started" button for "Bug report" is clearly labeled and prominently displayed, making it easy for ABI to identify the next step. Given ABI's motivation to create a new issue and their comprehensive information processing style, they will recognize that clicking the "Get started" button is the appropriate action to take. The page provides clear options and instructions, ensuring ABI knows what to do at this step and feels confident in taking the action.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Get started" button for "Bug report" is clearly labeled and prominently displayed, making it easy for ABI to understand what to do next. ABI, who is motivated to accomplish tasks, will recognize this as the next step. The page layout is straightforward and provides clear instructions, aligning with ABI's comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly labels the "Bug report" option with a "Get started" button, making it straightforward for Abi to understand what to do next. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she would recognize that clicking the "Get started" button for "Bug report" is the appropriate action to take. The clear labeling and organization of the page provide the necessary guidance for Abi to proceed confidently.</t>
         </is>
       </c>
     </row>
@@ -659,36 +659,36 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Get Started" button for "Bug Report," Abi is taken to a detailed form specifically for reporting bugs. The form includes fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. This structured format provides clear guidance on what information is needed, ensuring that Abi knows she is making progress toward her goal. The comprehensive nature of the form aligns with Abi's information processing style, providing all the necessary information she needs to complete the task.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the 'Get Started' button for 'Bug Report,' ABI will land on a detailed form specifically for reporting bugs. The form is well-structured, with clear fields for entering the necessary information, such as the title, version, operating system, and steps to reproduce the behavior. This layout provides ABI with a clear path to follow, confirming that they are making progress toward their goal. The comprehensive nature of the form aligns with ABI's information processing style, ensuring they have all the information they need to complete the bug report.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Get started" button for "Bug report," Abi is taken to a detailed form specifically for reporting bugs. The form includes fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. This structured format provides clear guidance on what information is needed, confirming to Abi that she is making progress toward her goal. The comprehensive nature of the form aligns with Abi's information processing style, ensuring she has all the information she needs to complete the task.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "Get started" button for "Bug report," ABI lands on a detailed form specifically for reporting bugs. The form includes clear fields for entering relevant information such as the title, version, operating system, and steps to reproduce the behavior. This structured format aligns with ABI's comprehensive information processing style and provides all the necessary information to proceed. ABI will know they did the right thing and are making progress toward their goal of creating a new issue.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Get started" button for "Bug report," ABI lands on a detailed bug report form. The form is well-structured, with clear fields for entering the necessary information, such as the title, version, operating system, and steps to reproduce the behavior. This layout provides clear feedback that ABI is making progress toward their goal. The comprehensive nature of the form aligns with ABI's information processing style, ensuring they have all the information they need to complete the bug report.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "Get started" button for "Bug report," Abi is taken to a detailed form specifically for reporting bugs. The form includes clear fields for entering relevant information, such as the title, version, operating system, and steps to reproduce the behavior. This structured layout confirms to Abi that she is on the right track and making progress toward her goal. The comprehensive nature of the form aligns with Abi's information processing style, providing her with all the necessary information to proceed confidently.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Get started" button for "Bug report," ABI lands on a detailed form specifically for reporting bugs. The form includes fields for all necessary information, such as the title, version, operating system, steps to reproduce the behavior, and more. This structured format provides clear guidance and ensures that ABI knows they are making progress toward their goal. The comprehensive nature of the form aligns with ABI's information processing style, and the clear instructions and required fields support ABI's motivation to complete the task.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Get started" button for "Bug report," ABI lands on a detailed form specifically for reporting bugs. The form includes clear fields for entering relevant information such as the title, version, operating system, and steps to reproduce the behavior. This structured format aligns with ABI's comprehensive information processing style, providing all the necessary details to ensure they are making progress toward their goal. The presence of a "Submit new issue" button further confirms that ABI is on the right track and has all the information needed to complete the task.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Get Started" button for "Bug Report," ABI lands on a detailed form specifically for reporting bugs. The form includes clear fields for entering relevant information, such as the title, version, operating system, and steps to reproduce the behavior. This structured format provides ABI with all the necessary information to proceed, ensuring they know they are making progress toward their goal. The comprehensive layout aligns with ABI's information processing style, and the clear instructions support their motivation to complete the task.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Get started" button for "Bug report," Abi lands on a detailed form specifically for reporting bugs. The form includes fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. This clear and structured format aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The form provides all the necessary fields and instructions, ensuring that Abi knows she is making progress toward her goal and has all the information she needs to complete the bug report.</t>
         </is>
       </c>
     </row>
@@ -696,36 +696,36 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. Each field is accompanied by a brief description, guiding Abi on what information to provide. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will know what to do at this step. The form provides clear instructions and necessary context, making it easy for Abi to fill out the required information.</t>
+Facets: Motivations, Information Processing Style
+Why: The bug report form is well-structured and clearly labeled, with fields for all the necessary information such as the title, version, operating system, and steps to reproduce the behavior. Each field is accompanied by a brief description, guiding ABI on what information to provide. This clear and organized layout aligns with ABI's comprehensive information processing style, making it easy for them to understand what to do at this step. ABI's motivation to complete the task will drive them to fill out the form, and the page provides all the necessary information to do so effectively.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. Each field is accompanied by a brief description, guiding Abi on what information to provide. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will know what to do at this step and will find the page good enough to take this action. The form provides clear instructions and necessary context, making it easy for Abi to fill out the required information.</t>
+Facets: Motivations, Information Processing Style
+Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, and steps to reproduce the behavior. Each field is accompanied by a brief description, making it clear what information is required. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, will understand what to do at this step. The form provides all the necessary information and guidance for ABI to fill it out correctly.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The bug report form is clearly structured with labeled fields and instructions, making it straightforward for ABI to understand what information is required. Each section of the form is clearly delineated, and the required fields are marked with an asterisk, providing clear guidance on what needs to be filled out. This aligns with ABI's comprehensive information processing style, ensuring they have all the necessary information to complete the form. ABI, motivated to report a bug, will find the page good enough to take this action.</t>
+Facets: Motivations, Information Processing Style
+Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, and steps to reproduce the behavior. Each field includes a description of what information is needed, which aligns with Abi's comprehensive information processing style. Abi, who is motivated to complete the task, will understand what to do at this step and find the page good enough to take this action. The form provides all the necessary guidance and information for Abi to fill it out confidently.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The bug report form is well-structured and clearly labeled, with fields for all necessary information such as the title, version, operating system, and steps to reproduce the behavior. Each field is accompanied by a brief description, guiding ABI on what information to provide. This aligns with ABI's motivation to complete tasks and their comprehensive information processing style, as the form provides clear instructions and a logical flow for entering the required information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, and steps to reproduce the behavior. Each field is accompanied by instructions or examples, making it clear what information is required. This aligns with ABI's motivation to create a new issue and their comprehensive information processing style. The form provides all the necessary details and guidance, ensuring ABI knows what to do at this step and feels confident in filling out the form.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The bug report form is well-structured with clear labels and instructions for each field, making it easy for ABI to understand what information is required. ABI, who is motivated to complete tasks, will find the form straightforward to fill out. The comprehensive layout and detailed instructions align with ABI's information processing style, ensuring they know what to do at this step and feel confident in taking the action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The bug report form is clearly structured with labeled fields and instructions, making it straightforward for Abi to understand what information is required. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she will know what to do at this step. The form provides clear guidance on what details to include, ensuring that Abi can confidently fill out the form and proceed with creating the bug report.</t>
         </is>
       </c>
     </row>
@@ -733,36 +733,36 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After filling out the bug report form, Abi can see that all the required fields are completed, and the "Submit new issue" button is available. The form is well-structured, and the fields are clearly labeled, providing Abi with the necessary information to ensure she has filled out the form correctly. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will know that she did the right thing and is making progress toward her goal. The page provides clear feedback and instructions, ensuring Abi has all the information she needs to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: After filling out the bug report form, ABI will see that all the required fields are completed, and the 'Submit new issue' button is enabled. This clear indication that the form is ready to be submitted will confirm to ABI that they have done the right thing and are making progress toward their goal. The form's layout and instructions provide all the necessary information, ensuring ABI can confidently proceed with submitting the bug report. This aligns with ABI's comprehensive information processing style and motivation to complete the task.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After filling out the bug report form, Abi will see that all the required fields are completed, and the "Submit new issue" button is enabled. This clear indication that she can now submit the form confirms that she has done the right thing and is making progress toward her goal. The form's structure and the presence of the "Submit new issue" button provide Abi with the necessary feedback and information to know that she is on the right track.</t>
+Facets: Motivations, Information Processing Style
+Why: After filling out the bug report form, ABI will see a well-organized summary of the information they have entered. The form includes all the necessary fields and provides clear instructions, ensuring that ABI knows they have done the right thing and are making progress toward their goal. The presence of a "Submit new issue" button further confirms that ABI is on the right track. The page provides all the information ABI needs to complete the task, aligning with their comprehensive information processing style.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After filling out the bug report form, ABI will see that all the required fields are completed and the "Submit new issue" button is enabled. This provides clear feedback that they have done the right thing and are making progress toward their goal. The form is well-structured and provides all the necessary information for ABI to understand that they are on the right track. The clear layout and instructions align with ABI's comprehensive information processing style, ensuring they have all the information they need to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: After filling out the bug report form, Abi will see that all the required fields are completed, and the "Submit new issue" button is enabled. This clear indication that the form is ready to be submitted confirms to Abi that she has done the right thing and is making progress toward her goal. The structured layout and comprehensive nature of the form provide all the necessary information, aligning with Abi's information processing style and ensuring she feels confident in her actions.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After filling out the bug report form, ABI will see that all required fields are completed and the "Submit new issue" button is available. The form's structure and the presence of a clear submission button provide feedback that ABI is making progress toward their goal. The detailed nature of the form ensures that ABI has provided all necessary information, aligning with their comprehensive information processing style and motivation to complete the task.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After filling out the bug report form, ABI will see a clear and structured summary of the information they have entered. The form includes all necessary fields, and the "Submit new issue" button is prominently displayed, indicating the final step to complete the process. This aligns with ABI's motivation to create a new issue and their comprehensive information processing style. The page provides a clear indication that ABI is making progress toward their goal and has all the information needed to submit the bug report successfully.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After filling out the bug report form, ABI will see a completed form with all the information they have entered. The form is well-structured and provides clear fields for each required piece of information, ensuring ABI knows they have done the right thing. The "Submit new issue" button is prominently displayed, indicating the next step. This clear and comprehensive layout aligns with ABI's information processing style and supports their motivation to complete the task, ensuring they feel confident they are making progress toward their goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After filling out the bug report form, Abi will see that all the required fields are completed, and the "Submit new issue" button is available. This clear indication that she can submit the form confirms that she has done the right thing and is making progress toward her goal. The form's structure and the presence of a submit button provide the necessary feedback and guidance, ensuring that Abi knows she has provided all the required information and can proceed with submitting the bug report.</t>
         </is>
       </c>
     </row>
@@ -770,36 +770,36 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear and easy to find. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that clicking the "Submit new issue" button is the final step in creating a new issue. The page provides clear instructions and necessary context, ensuring Abi knows what to do at this step and feels confident in taking the action.</t>
+Facets: Motivations, Information Processing Style
+Why: The 'Submit new issue' button is clearly visible and labeled, making it easy for ABI to understand that this is the final step to complete the bug report. ABI, being motivated to finish the task, will recognize that clicking this button is the appropriate action to take. The page provides a clear and straightforward path, ensuring ABI knows they are making progress toward their goal. The comprehensive layout and instructions align with ABI's information processing style, giving them the confidence to proceed with submitting the bug report.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear what Abi needs to do next. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that clicking this button is the final step in submitting the bug report. The page provides clear instructions and visual cues, ensuring that Abi knows what to do at this step and feels confident in taking this action.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear and easy to find. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, will understand that clicking this button is the final step in submitting the bug report. The page provides clear instructions and a straightforward path, ensuring that ABI knows what to do at this step.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Submit new issue" button is clearly visible and enabled, indicating that ABI has completed all the necessary fields in the bug report form. ABI, motivated to report the bug, will recognize this button as the final step to submit their report. The page layout and instructions provide clear guidance, ensuring ABI knows what to do next. This aligns with ABI's comprehensive information processing style, making it clear that clicking the "Submit new issue" button is the appropriate action to take.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear that this is the final step to submit the bug report. Abi, who is motivated to complete the task and uses a comprehensive information processing style, will understand that clicking this button is the appropriate action to take. The page layout and clear labeling provide sufficient guidance for Abi to proceed confidently.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Submit new issue" button is clearly visible and labeled at the bottom of the form. ABI, who is motivated to complete tasks and uses a comprehensive information processing style, will understand that clicking this button is the final step to submit the bug report. The page provides clear instructions and a logical flow, ensuring that ABI knows what to do and feels confident in taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear and easy for ABI to identify the final step in the process. Given ABI's motivation to create a new issue and their comprehensive information processing style, they will recognize that clicking the "Submit new issue" button is the appropriate action to take. The page provides a clear path forward, ensuring ABI knows what to do at this step and feels confident in taking the action.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear what ABI needs to do next. ABI, who is motivated to complete tasks, will recognize this as the final step in submitting the bug report. The page layout is straightforward and provides clear instructions, aligning with ABI's comprehensive information processing style. This ensures ABI knows they are making progress toward their goal and feels confident in taking the action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Submit new issue" button is clearly visible and labeled at the bottom of the form, making it straightforward for Abi to understand what to do next. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she will recognize that clicking this button is the final step in submitting the bug report. The page layout and instructions provide clear guidance, ensuring that Abi knows she has completed the form correctly and can proceed with submitting the issue.</t>
         </is>
       </c>
     </row>
@@ -807,36 +807,36 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Submit new issue" button, Abi is taken to a page that displays the newly created issue with all the details she provided. The issue is clearly labeled as "Open," and the information she entered is displayed in an organized manner. This provides clear feedback that she has successfully submitted the issue and is making progress toward her goal. The page also offers options to edit the issue or add comments, ensuring Abi has all the information she needs to proceed. This aligns with her motivation to accomplish tasks and her comprehensive information processing style.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the 'Submit new issue' button, ABI will land on a page that shows the newly created issue with all the details they entered. The issue is clearly labeled as "Open," and the information ABI provided is displayed in an organized manner. This confirmation page provides clear feedback that the issue has been successfully submitted, ensuring ABI knows they did the right thing and are making progress toward their goal. The comprehensive display of the submitted information aligns with ABI's information processing style, giving them confidence that all necessary details have been captured.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Submit new issue" button, Abi is taken to a page that displays the newly created issue with all the details she entered. The issue is marked as "Open," and the information is clearly presented, confirming that she has successfully submitted the bug report. This feedback ensures that Abi knows she did the right thing and is making progress toward her goal. The page provides all the necessary information, including the ability to add comments or edit the issue, aligning with Abi's comprehensive information processing style.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "Submit new issue" button, ABI lands on a page that displays the newly created issue with all the details they entered. The issue is clearly labeled as "Open," and the information is well-organized, confirming that ABI has successfully submitted the issue. This page provides a clear indication that ABI did the right thing and is making progress toward their goal. The presence of options to edit the issue or add comments further supports ABI's understanding that they have completed the task correctly.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Submit new issue" button, ABI is taken to a page that displays the newly created issue with all the details they entered. This provides clear feedback that the issue has been successfully submitted, confirming that ABI did the right thing. The page layout shows the issue status as "Open" and includes all the information ABI provided, ensuring they have all the necessary information and can see their progress toward their goal. This aligns with ABI's comprehensive information processing style, providing reassurance that the task has been completed correctly.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "Submit new issue" button, Abi is taken to a page that displays the newly created issue with all the details she entered. The issue is clearly marked as "Open," and the information is presented in a structured format, confirming to Abi that she has successfully submitted the issue and is making progress toward her goal. The page layout and the visibility of the submitted information align with Abi's comprehensive information processing style, providing her with the necessary confirmation and confidence that she did the right thing.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Submit new issue" button, ABI lands on a page that displays the submitted bug report with all the details they entered. The presence of the issue title, description, and other information confirms that the issue has been successfully created. This feedback ensures that ABI knows they did the right thing and are making progress toward their goal. The clear presentation of the submitted information aligns with ABI's comprehensive information processing style and motivation to complete tasks.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Submit new issue" button, ABI lands on a page that displays the newly created issue with all the details they entered. The issue is clearly labeled as "Open," and the information is presented in a structured format, confirming that ABI has successfully submitted the issue. This aligns with ABI's motivation to create a new issue and their comprehensive information processing style. The page provides a clear indication that ABI has done the right thing and is making progress toward their goal, with all the necessary information displayed.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Submit new issue" button, ABI lands on a page that displays the submitted bug report with all the details they entered. The page confirms that the issue has been created and provides a clear view of the information, including the issue number and status. This feedback ensures ABI knows they have done the right thing and are making progress toward their goal. The comprehensive display of the submitted information aligns with ABI's information processing style, providing them with all the necessary information to feel confident in their action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Submit new issue" button, Abi lands on a page that displays the submitted bug report with all the details she entered. The page shows the issue as "Open" and provides options to edit or add comments, confirming that the issue has been successfully created. This clear feedback ensures that Abi knows she did the right thing and is making progress toward her goal. The structured presentation of the submitted issue aligns with Abi's comprehensive information processing style, providing all the information she needs to confirm the successful submission.</t>
         </is>
       </c>
     </row>
